--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeAttendance__2019-08-03__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeAttendance__2019-08-03__v1.0.0.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(2) Test Case Test Log'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'(2) Test Case Test Log'!$A$11:$P$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'(2) Test Case Test Log'!$A$11:$P$15</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="121">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -389,9 +389,6 @@
     <t>ITC003</t>
   </si>
   <si>
-    <t>Test non- privileged user permission</t>
-  </si>
-  <si>
     <t>1.1.0</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>KG-ERP</t>
   </si>
   <si>
-    <t>1. Logged on with a normal user (employee)</t>
-  </si>
-  <si>
     <t>HRMS</t>
   </si>
   <si>
@@ -417,11 +411,6 @@
   </si>
   <si>
     <t>Employee Attendance List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log on to the home page of the system
-2. Show Daily attendance (Employee ID, Name, Date, In Time, Out Time, Status)
-3. Search criteria based on Employee ID and Datewise </t>
   </si>
   <si>
     <t>Non-privileged users are not allowed to access the page. 
@@ -431,23 +420,10 @@
     <t>Employee Attendance Process</t>
   </si>
   <si>
-    <t>1. Get attendance data from attendance punch machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Only Authorized person can be process Attendance data (not just an employee). Only Admin can do this work.
-</t>
-  </si>
-  <si>
     <t>Everyday data processing  from machine successfully</t>
   </si>
   <si>
     <t>Employee Attendance Approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log on to the home page of the system
-2. Type in valid username and password
-3. Show Previous 3 days attendance (In-Out time schedule)
-</t>
   </si>
   <si>
     <t>Dil Afroza Ahmed Choudhury</t>
@@ -460,8 +436,25 @@
 Password:    user's password</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Send a notification mail to user and user's line manager                            2. Send a notification mail to HRD
-3.  </t>
+    <t>1. Test non- privileged user permission</t>
+  </si>
+  <si>
+    <t>2. Attendance process and execution (using service)</t>
+  </si>
+  <si>
+    <t>4. Get attendance data from attendance punch machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Send a notification mail to user and user's line manager </t>
+  </si>
+  <si>
+    <t>6. Send a notification mail to HRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Employee attendance search with date range, Employee ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Read attendance from punch machine and day wise attendance process </t>
   </si>
 </sst>
 </file>
@@ -473,7 +466,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,8 +606,20 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,8 +650,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -799,17 +810,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -817,39 +817,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -869,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1032,62 +999,103 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1396,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1436,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>64</v>
@@ -1801,16 +1809,16 @@
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
@@ -1822,16 +1830,16 @@
     <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="50" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1872,21 +1880,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9" style="29" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="42" style="29" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="29" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="29" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" style="33" customWidth="1"/>
     <col min="10" max="10" width="37.85546875" style="29" customWidth="1"/>
@@ -1926,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="66"/>
+      <c r="D4" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="96"/>
       <c r="F4" s="5"/>
       <c r="H4" s="10"/>
       <c r="I4" s="34"/>
@@ -1944,11 +1952,11 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="79"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="10"/>
       <c r="I5" s="34"/>
       <c r="J5" s="5"/>
@@ -1964,7 +1972,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="5"/>
@@ -1987,55 +1995,55 @@
       <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="80" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="102"/>
       <c r="O10" s="41" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:16" s="33" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="66" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="65" t="s">
@@ -2056,65 +2064,55 @@
       <c r="O11" s="41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="P11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="77"/>
+    </row>
+    <row r="13" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="1:16" ht="99" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="73" t="s">
+      <c r="E13" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="73" t="s">
-        <v>114</v>
+      <c r="I13" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="54"/>
@@ -2123,29 +2121,27 @@
       <c r="N13" s="60"/>
       <c r="O13" s="54"/>
     </row>
-    <row r="14" spans="1:16" ht="132" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="71" t="s">
+    <row r="14" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
+      <c r="B14" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="73" t="s">
-        <v>107</v>
+      <c r="C14" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="68" t="s">
+        <v>109</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="54"/>
@@ -2154,112 +2150,135 @@
       <c r="N14" s="60"/>
       <c r="O14" s="54"/>
     </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-    </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-    </row>
-    <row r="17" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+    <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
       <c r="P17" s="59"/>
     </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
+    <row r="18" spans="1:16" s="30" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
       <c r="P18" s="59"/>
     </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
       <c r="P19" s="59"/>
     </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
+    <row r="20" spans="1:16" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
       <c r="P20" s="59"/>
     </row>
     <row r="21" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2388,7 +2407,7 @@
       <c r="O27" s="58"/>
       <c r="P27" s="59"/>
     </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
@@ -2396,7 +2415,7 @@
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
@@ -2532,14 +2551,14 @@
       <c r="O35" s="58"/>
       <c r="P35" s="59"/>
     </row>
-    <row r="36" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
       <c r="J36" s="57"/>
@@ -2568,14 +2587,14 @@
       <c r="O37" s="58"/>
       <c r="P37" s="59"/>
     </row>
-    <row r="38" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
       <c r="J38" s="57"/>
@@ -2930,13 +2949,13 @@
     </row>
     <row r="58" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
       <c r="I58" s="56"/>
       <c r="J58" s="57"/>
       <c r="K58" s="57"/>
@@ -2948,13 +2967,13 @@
     </row>
     <row r="59" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
       <c r="I59" s="56"/>
       <c r="J59" s="57"/>
       <c r="K59" s="57"/>
@@ -4224,13 +4243,47 @@
       <c r="O129" s="58"/>
       <c r="P129" s="59"/>
     </row>
+    <row r="130" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="57"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="56"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="57"/>
+      <c r="L130" s="58"/>
+      <c r="M130" s="58"/>
+      <c r="N130" s="58"/>
+      <c r="O130" s="58"/>
+      <c r="P130" s="59"/>
+    </row>
+    <row r="131" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="57"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
+      <c r="L131" s="58"/>
+      <c r="M131" s="58"/>
+      <c r="N131" s="58"/>
+      <c r="O131" s="58"/>
+      <c r="P131" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="J10:N10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeAttendance__2019-08-03__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeAttendance__2019-08-03__v1.0.0.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t xml:space="preserve">7. Read attendance from punch machine and day wise attendance process </t>
+  </si>
+  <si>
+    <t>Non-privileged users are not allowed to access the page</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,6 +1099,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +1898,7 @@
     <col min="3" max="3" width="9" style="29" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" style="29" customWidth="1"/>
     <col min="5" max="5" width="49.140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="42" style="29" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="29" customWidth="1"/>
     <col min="7" max="7" width="32.140625" style="29" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="29" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" style="33" customWidth="1"/>
@@ -1934,10 +1939,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="5"/>
       <c r="H4" s="10"/>
       <c r="I4" s="34"/>
@@ -1995,24 +2000,24 @@
       <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="102"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="101"/>
       <c r="O10" s="41" t="s">
         <v>13</v>
       </c>
@@ -2074,10 +2079,9 @@
       <c r="E12" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="G12" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="74"/>
       <c r="H12" s="75"/>
       <c r="I12" s="75"/>
       <c r="J12" s="76"/>
@@ -2101,14 +2105,16 @@
       <c r="D13" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="82" t="s">
         <v>113</v>
       </c>
       <c r="I13" s="68" t="s">
@@ -2135,10 +2141,9 @@
       <c r="E14" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="G14" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="82"/>
       <c r="H14" s="80"/>
       <c r="I14" s="68" t="s">
         <v>109</v>
@@ -2164,10 +2169,9 @@
       <c r="E15" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="G15" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="82"/>
       <c r="H15" s="80"/>
       <c r="I15" s="68" t="s">
         <v>105</v>
@@ -2180,105 +2184,102 @@
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="G16" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="88"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="70"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="92"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:16" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="G17" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
       <c r="P17" s="59"/>
     </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="95" t="s">
+    <row r="18" spans="1:16" s="30" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="83"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="G18" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
       <c r="P18" s="59"/>
     </row>
     <row r="19" spans="1:16" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="59"/>
     </row>
     <row r="20" spans="1:16" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="59"/>
     </row>
     <row r="21" spans="1:16" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">

--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeAttendance__2019-08-03__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeAttendance__2019-08-03__v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="886" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="886" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="(0) Guidelines" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="(2) Test Case Test Log" sheetId="1" r:id="rId3"/>
     <sheet name="(3) Expected Data Reference" sheetId="5" r:id="rId4"/>
     <sheet name="(4) Actual Data Reference" sheetId="6" r:id="rId5"/>
+    <sheet name="Findings" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(2) Test Case Test Log'!#REF!</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -458,6 +459,27 @@
   </si>
   <si>
     <t>Non-privileged users are not allowed to access the page</t>
+  </si>
+  <si>
+    <t>20/08/2019</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Daily Attendance</t>
+  </si>
+  <si>
+    <t>Datewise Attendance not viewed properly</t>
   </si>
 </sst>
 </file>
@@ -469,7 +491,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +642,38 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -839,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1079,6 +1133,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,9 +1157,10 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="E11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1939,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="5"/>
       <c r="H4" s="10"/>
       <c r="I4" s="34"/>
@@ -2000,24 +2058,24 @@
       <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="102"/>
       <c r="O10" s="41" t="s">
         <v>13</v>
       </c>
@@ -2108,7 +2166,7 @@
       <c r="E13" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="95" t="s">
         <v>121</v>
       </c>
       <c r="G13" s="93" t="s">
@@ -4420,4 +4478,54 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>